--- a/files/Emp Details.xlsx
+++ b/files/Emp Details.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sange\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\Emp-Details\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{71B4E77C-9DA3-417B-9147-2FF38905EE0B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6169EF4-BF18-44F6-A7BE-8A038F9F437E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{69819DD6-A3DA-442C-A1B6-94F94DE22841}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9F319F9B-3066-495C-A728-79DA73221C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Emp Details" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Emp Details'!$A$1:$C$84</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,40 +28,550 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="179">
+  <si>
+    <t>Emp ID</t>
+  </si>
   <si>
     <t>Emp Name</t>
   </si>
   <si>
-    <t>Emp ID</t>
-  </si>
-  <si>
-    <t>Place</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>ARI 1100</t>
+  </si>
+  <si>
+    <t>ARI 1102</t>
+  </si>
+  <si>
+    <t>Dean Drake</t>
+  </si>
+  <si>
+    <t>ARI 1104</t>
+  </si>
+  <si>
+    <t>Neil Best</t>
+  </si>
+  <si>
+    <t>ARI 1106</t>
+  </si>
+  <si>
+    <t>ARI 1108</t>
+  </si>
+  <si>
+    <t>ARI 1110</t>
+  </si>
+  <si>
+    <t>Lara Dudley</t>
+  </si>
+  <si>
+    <t>ARI 1112</t>
+  </si>
+  <si>
+    <t>ARI 1114</t>
+  </si>
+  <si>
+    <t>Aline Daniels</t>
+  </si>
+  <si>
+    <t>ARI 1116</t>
+  </si>
+  <si>
+    <t>Iliana V. Tran</t>
+  </si>
+  <si>
+    <t>ARI 1118</t>
+  </si>
+  <si>
+    <t>ARI 1120</t>
+  </si>
+  <si>
+    <t>Aladdin Hayes</t>
+  </si>
+  <si>
+    <t>ARI 1122</t>
+  </si>
+  <si>
+    <t>Nina Q. Castro</t>
+  </si>
+  <si>
+    <t>ARI 1124</t>
+  </si>
+  <si>
+    <t>Mark E. Walsh</t>
+  </si>
+  <si>
+    <t>ARI 1126</t>
+  </si>
+  <si>
+    <t>ARI 1128</t>
+  </si>
+  <si>
+    <t>ARI 1130</t>
+  </si>
+  <si>
+    <t>Brittany Wolf</t>
+  </si>
+  <si>
+    <t>ARI 1132</t>
+  </si>
+  <si>
+    <t>Neve Cannon</t>
+  </si>
+  <si>
+    <t>ARI 1134</t>
+  </si>
+  <si>
+    <t>Moses Jackson</t>
+  </si>
+  <si>
+    <t>ARI 1136</t>
+  </si>
+  <si>
+    <t>Virginia Jacobs</t>
+  </si>
+  <si>
+    <t>ARI 1138</t>
+  </si>
+  <si>
+    <t>Illiana Moody</t>
+  </si>
+  <si>
+    <t>ARI 1140</t>
+  </si>
+  <si>
+    <t>ARI 1142</t>
+  </si>
+  <si>
+    <t>ARI 1144</t>
+  </si>
+  <si>
+    <t>ARI 1146</t>
+  </si>
+  <si>
+    <t>Kato E. Franks</t>
+  </si>
+  <si>
+    <t>ARI 1148</t>
+  </si>
+  <si>
+    <t>Phillip Porter</t>
+  </si>
+  <si>
+    <t>ARI 1150</t>
+  </si>
+  <si>
+    <t>Alice Mcguire</t>
+  </si>
+  <si>
+    <t>ARI 1152</t>
+  </si>
+  <si>
+    <t>Tara English</t>
+  </si>
+  <si>
+    <t>ARI 1154</t>
+  </si>
+  <si>
+    <t>Yetta Morse</t>
+  </si>
+  <si>
+    <t>ARI 1156</t>
+  </si>
+  <si>
+    <t>Teagan Petty</t>
+  </si>
+  <si>
+    <t>ARI 1158</t>
+  </si>
+  <si>
+    <t>Ashton I. Murphy</t>
+  </si>
+  <si>
+    <t>ARI 1160</t>
+  </si>
+  <si>
+    <t>Barry R. Franco</t>
+  </si>
+  <si>
+    <t>ARI 1162</t>
+  </si>
+  <si>
+    <t>Lunea G. Conrad</t>
+  </si>
+  <si>
+    <t>ARI 1164</t>
+  </si>
+  <si>
+    <t>Neville Sparks</t>
+  </si>
+  <si>
+    <t>ARI 1166</t>
+  </si>
+  <si>
+    <t>Quamar Dodson</t>
+  </si>
+  <si>
+    <t>ARI 1168</t>
+  </si>
+  <si>
+    <t>Ivory Gonzalez</t>
+  </si>
+  <si>
+    <t>ARI 1170</t>
+  </si>
+  <si>
+    <t>Sheila C. Erickson</t>
+  </si>
+  <si>
+    <t>ARI 1172</t>
+  </si>
+  <si>
+    <t>Olympia Vaughn</t>
+  </si>
+  <si>
+    <t>ARI 1174</t>
+  </si>
+  <si>
+    <t>ARI 1176</t>
+  </si>
+  <si>
+    <t>Galena P. Baldwin</t>
+  </si>
+  <si>
+    <t>ARI 1178</t>
+  </si>
+  <si>
+    <t>Omar B. Dalton</t>
+  </si>
+  <si>
+    <t>ARI 1180</t>
+  </si>
+  <si>
+    <t>Melissa Ellison</t>
+  </si>
+  <si>
+    <t>ARI 1182</t>
+  </si>
+  <si>
+    <t>ARI 1184</t>
+  </si>
+  <si>
+    <t>Olivia Moody</t>
+  </si>
+  <si>
+    <t>ARI 1186</t>
+  </si>
+  <si>
+    <t>Blair Saunders</t>
+  </si>
+  <si>
+    <t>ARI 1188</t>
+  </si>
+  <si>
+    <t>Kato S. Chaney</t>
+  </si>
+  <si>
+    <t>ARI 1190</t>
+  </si>
+  <si>
+    <t>ARI 1192</t>
+  </si>
+  <si>
+    <t>Nayda Hardin</t>
+  </si>
+  <si>
+    <t>ARI 1194</t>
+  </si>
+  <si>
+    <t>Beau Gonzalez</t>
+  </si>
+  <si>
+    <t>ARI 1196</t>
+  </si>
+  <si>
+    <t>Laurel T. Pace</t>
+  </si>
+  <si>
+    <t>ARI 1198</t>
+  </si>
+  <si>
+    <t>Alexa Riley</t>
+  </si>
+  <si>
+    <t>ARI 1200</t>
+  </si>
+  <si>
+    <t>Alice Raymond</t>
+  </si>
+  <si>
+    <t>ARI 1202</t>
+  </si>
+  <si>
+    <t>ARI 1204</t>
+  </si>
+  <si>
+    <t>ARI 1206</t>
+  </si>
+  <si>
+    <t>Angelica Bray</t>
+  </si>
+  <si>
+    <t>ARI 1208</t>
+  </si>
+  <si>
+    <t>ARI 1210</t>
+  </si>
+  <si>
+    <t>ARI 1212</t>
+  </si>
+  <si>
+    <t>Malik Sargent</t>
+  </si>
+  <si>
+    <t>ARI 1214</t>
+  </si>
+  <si>
+    <t>Kylee Hart</t>
+  </si>
+  <si>
+    <t>ARI 1216</t>
+  </si>
+  <si>
+    <t>Kuame Jennings</t>
+  </si>
+  <si>
+    <t>ARI 1218</t>
+  </si>
+  <si>
+    <t>Peter Brady</t>
+  </si>
+  <si>
+    <t>ARI 1220</t>
+  </si>
+  <si>
+    <t>Prescott Kent</t>
+  </si>
+  <si>
+    <t>ARI 1222</t>
+  </si>
+  <si>
+    <t>ARI 1224</t>
+  </si>
+  <si>
+    <t>Haviva Wilder</t>
+  </si>
+  <si>
+    <t>ARI 1226</t>
+  </si>
+  <si>
+    <t>ARI 1228</t>
+  </si>
+  <si>
+    <t>Nevada K. Finch</t>
+  </si>
+  <si>
+    <t>ARI 1230</t>
+  </si>
+  <si>
+    <t>Jelani X. Osborne</t>
+  </si>
+  <si>
+    <t>ARI 1232</t>
+  </si>
+  <si>
+    <t>Amal Conway</t>
+  </si>
+  <si>
+    <t>ARI 1234</t>
+  </si>
+  <si>
+    <t>Aurora Carrillo</t>
+  </si>
+  <si>
+    <t>ARI 1236</t>
+  </si>
+  <si>
+    <t>Ursa G. Wood</t>
+  </si>
+  <si>
+    <t>ARI 1238</t>
+  </si>
+  <si>
+    <t>Nasim Beach</t>
+  </si>
+  <si>
+    <t>ARI 1240</t>
+  </si>
+  <si>
+    <t>Pamela X. Ford</t>
+  </si>
+  <si>
+    <t>ARI 1242</t>
+  </si>
+  <si>
+    <t>Karen K. Riley</t>
+  </si>
+  <si>
+    <t>ARI 1244</t>
+  </si>
+  <si>
+    <t>Alyssa Bean</t>
+  </si>
+  <si>
+    <t>ARI 1246</t>
+  </si>
+  <si>
+    <t>Yoshi Byers</t>
+  </si>
+  <si>
+    <t>ARI 1248</t>
+  </si>
+  <si>
+    <t>ARI 1250</t>
+  </si>
+  <si>
+    <t>ARI 1252</t>
+  </si>
+  <si>
+    <t>Fatima C. Bentley</t>
+  </si>
+  <si>
+    <t>ARI 1254</t>
+  </si>
+  <si>
+    <t>Chloe Gillespie</t>
+  </si>
+  <si>
+    <t>ARI 1256</t>
+  </si>
+  <si>
+    <t>Juliet Mcconnell</t>
+  </si>
+  <si>
+    <t>ARI 1258</t>
+  </si>
+  <si>
+    <t>Macy O. Campbell</t>
+  </si>
+  <si>
+    <t>ARI 1260</t>
+  </si>
+  <si>
+    <t>Kasper R. Harrison</t>
+  </si>
+  <si>
+    <t>ARI 1262</t>
+  </si>
+  <si>
+    <t>Porter L. Chang</t>
+  </si>
+  <si>
+    <t>ARI 1264</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>Zachary N</t>
+  </si>
+  <si>
+    <t>Theodore</t>
+  </si>
+  <si>
+    <t>Michael A</t>
+  </si>
+  <si>
+    <t>Brooke T</t>
+  </si>
+  <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Adrian Z</t>
+  </si>
+  <si>
+    <t>Merritt S</t>
+  </si>
+  <si>
+    <t>Madison R</t>
+  </si>
+  <si>
+    <t>Colette M</t>
+  </si>
+  <si>
+    <t>Joshua A</t>
+  </si>
+  <si>
+    <t>Porter G</t>
+  </si>
+  <si>
+    <t>Lydia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloria </t>
+  </si>
+  <si>
+    <t>Regina</t>
+  </si>
+  <si>
+    <t>Paul G</t>
+  </si>
+  <si>
+    <t>Shelley</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Kameko C</t>
+  </si>
+  <si>
+    <t>Shaine B</t>
+  </si>
+  <si>
+    <t>Ryan O</t>
+  </si>
+  <si>
+    <t>Brittany J</t>
+  </si>
+  <si>
+    <t>Adrian I</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Delivery Lead</t>
+  </si>
+  <si>
+    <t>Delivery Manager</t>
+  </si>
+  <si>
+    <t>Assosiate</t>
+  </si>
+  <si>
+    <t>Senior Assosiate</t>
+  </si>
+  <si>
+    <t>Junior Analyst</t>
+  </si>
+  <si>
+    <t>Senior Analyst</t>
+  </si>
+  <si>
+    <t>Senior Engineer</t>
+  </si>
+  <si>
+    <t>Associate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +579,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,8 +614,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,27 +930,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2794EA49-829D-49B7-8B08-7FE9085CBBAA}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA892C9-390B-43A0-89F0-C7806BA3826A}">
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q8:Q9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -430,55 +959,913 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>142</v>
+      </c>
+      <c r="B82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
